--- a/employees.xlsx
+++ b/employees.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Employees</t>
   </si>
@@ -26,19 +26,67 @@
     <t>Andrey Kulik</t>
   </si>
   <si>
-    <t>sv2</t>
-  </si>
-  <si>
     <t>Mikhail Zemskov</t>
   </si>
   <si>
-    <t>forces</t>
-  </si>
-  <si>
     <t>Ksenia Kudakova</t>
   </si>
   <si>
-    <t>Chote'scho</t>
+    <t>Sergey Kolebanov</t>
+  </si>
+  <si>
+    <t>Anna Anfilova</t>
+  </si>
+  <si>
+    <t>Egor Mazur</t>
+  </si>
+  <si>
+    <t>Evgeny Zharkov</t>
+  </si>
+  <si>
+    <t>Georgy Koreshev</t>
+  </si>
+  <si>
+    <t>Kirill Volkov</t>
+  </si>
+  <si>
+    <t>Konstantin Osipov</t>
+  </si>
+  <si>
+    <t>Michail Sednev</t>
+  </si>
+  <si>
+    <t>Mikael Bodin</t>
+  </si>
+  <si>
+    <t>Peter Andersson</t>
+  </si>
+  <si>
+    <t>Vladimir Popov</t>
+  </si>
+  <si>
+    <t>Rustem Teregulov</t>
+  </si>
+  <si>
+    <t>Andrey Matushin</t>
+  </si>
+  <si>
+    <t>Alexander Abrosimov</t>
+  </si>
+  <si>
+    <t>Nikolay Starkov</t>
+  </si>
+  <si>
+    <t>Oleg Kuzmin</t>
+  </si>
+  <si>
+    <t>Artem Zamulin</t>
+  </si>
+  <si>
+    <t>Sergey Lychagin</t>
+  </si>
+  <si>
+    <t>Vladimir Bochkov</t>
   </si>
 </sst>
 </file>
@@ -53,6 +101,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,8 +161,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -134,10 +191,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -158,25 +215,183 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -12,36 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>External comments</t>
+    <t>Employee</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Amount of external comments</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>+2</t>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -85,59 +61,28 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="F1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="F1:I1"/>
-  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>